--- a/input.xlsx
+++ b/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>ling</t>
   </si>
   <si>
-    <t>tag6</t>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -79,12 +76,66 @@
   </si>
   <si>
     <t>['http://career.cmbchina.com/Campus/Position.aspx?id=10234', 'cmbchina', 'IT岗', '无锡分行', '无锡分行及下辖机构', '2016-10-14', 'Not available', 'Not available']</t>
+  </si>
+  <si>
+    <t>branch_notice_list2</t>
+  </si>
+  <si>
+    <t>http://job.ccb.com/ccbjob/cn/job/index.jsp</t>
+  </si>
+  <si>
+    <t>ccb</t>
+  </si>
+  <si>
+    <t>//*[@id="title"]/strong/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="data"]/table/tbody/tr[2]/td/p[5]/font/text()</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>post date</t>
+  </si>
+  <si>
+    <t>//*[@id="data"]/table[1]/tbody/tr[1]/td/text()</t>
+  </si>
+  <si>
+    <t>openHome</t>
+  </si>
+  <si>
+    <t>jobDetails</t>
+  </si>
+  <si>
+    <t>http://job.abchina.com/rio/index.do?action=openHome</t>
+  </si>
+  <si>
+    <t>abchina</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[2]/td[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[6]/td[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[5]/td[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[2]/td[4]</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[1]/td[4]</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tbody/tr[3]/td[2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,79 +523,143 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>ling</t>
-  </si>
-  <si>
-    <t>tag6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>company</t>
   </si>
@@ -79,6 +73,21 @@
   </si>
   <si>
     <t>['http://career.cmbchina.com/Campus/Position.aspx?id=10234', 'cmbchina', 'IT岗', '无锡分行', '无锡分行及下辖机构', '2016-10-14', 'Not available', 'Not available']</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Social/Default.aspx</t>
+  </si>
+  <si>
+    <t>link</t>
   </si>
 </sst>
 </file>
@@ -461,7 +470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,72 +481,104 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>ling</t>
-  </si>
-  <si>
-    <t>tag6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>company</t>
   </si>
@@ -78,13 +72,79 @@
     <t>//*[@id="rightdiv"]/div/div[2]/p[3]/text()</t>
   </si>
   <si>
-    <t>['http://career.cmbchina.com/Campus/Position.aspx?id=10234', 'cmbchina', 'IT岗', '无锡分行', '无锡分行及下辖机构', '2016-10-14', 'Not available', 'Not available']</t>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Social/Default.aspx</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[5]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[3]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[6]/text()</t>
+  </si>
+  <si>
+    <t>http://job.ccb.com/ccbjob/cn/job/index.jsp</t>
+  </si>
+  <si>
+    <t>ccb</t>
+  </si>
+  <si>
+    <t>//*[@id="title"]/strong/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="data"]/table/tbody/tr[2]/td/p[5]/font/text()</t>
+  </si>
+  <si>
+    <t>branch_notice_list2</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>http://job.abchina.com/rio/index.do?action=openHome</t>
+  </si>
+  <si>
+    <t>abchina</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[2]/td[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[6]/td[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tbody/tr[3]/td[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[5]/td[2]</t>
+  </si>
+  <si>
+    <t>openHome</t>
+  </si>
+  <si>
+    <t>jobDetails</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,75 +529,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>18</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>ling</t>
-  </si>
-  <si>
-    <t>tag6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>company</t>
   </si>
@@ -78,13 +72,79 @@
     <t>//*[@id="rightdiv"]/div/div[2]/p[3]/text()</t>
   </si>
   <si>
-    <t>['http://career.cmbchina.com/Campus/Position.aspx?id=10234', 'cmbchina', 'IT岗', '无锡分行', '无锡分行及下辖机构', '2016-10-14', 'Not available', 'Not available']</t>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Social/Default.aspx</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[5]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[3]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[6]/text()</t>
+  </si>
+  <si>
+    <t>http://job.ccb.com/ccbjob/cn/job/index.jsp</t>
+  </si>
+  <si>
+    <t>ccb</t>
+  </si>
+  <si>
+    <t>//*[@id="title"]/strong/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="data"]/table/tbody/tr[2]/td/p[5]/font/text()</t>
+  </si>
+  <si>
+    <t>branch_notice_list2</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>abchina</t>
+  </si>
+  <si>
+    <t>jobDetails</t>
+  </si>
+  <si>
+    <t>http://job.abchina.com/rio/index.do?action=openHome&amp;toId=2</t>
+  </si>
+  <si>
+    <t>jobPublish</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[2]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[6]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tbody/tr[3]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[5]/td[2]/text()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,75 +529,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>18</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>ling</t>
-  </si>
-  <si>
-    <t>tag6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>company</t>
   </si>
@@ -78,14 +72,134 @@
     <t>//*[@id="rightdiv"]/div/div[2]/p[3]/text()</t>
   </si>
   <si>
-    <t>['http://career.cmbchina.com/Campus/Position.aspx?id=10234', 'cmbchina', 'IT岗', '无锡分行', '无锡分行及下辖机构', '2016-10-14', 'Not available', 'Not available']</t>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Social/Default.aspx</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[5]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[3]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[6]/text()</t>
+  </si>
+  <si>
+    <t>http://job.ccb.com/ccbjob/cn/job/index.jsp</t>
+  </si>
+  <si>
+    <t>ccb</t>
+  </si>
+  <si>
+    <t>//*[@id="title"]/strong/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="data"]/table/tbody/tr[2]/td/p[5]/font/text()</t>
+  </si>
+  <si>
+    <t>branch_notice_list2</t>
+  </si>
+  <si>
+    <t>abchina</t>
+  </si>
+  <si>
+    <t>jobDetails</t>
+  </si>
+  <si>
+    <t>http://job.abchina.com/rio/index.do?action=openHome&amp;toId=2</t>
+  </si>
+  <si>
+    <t>jobPublish</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[2]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[6]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tbody/tr[3]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="frmPutQuestion"]/table[3]/tr[5]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>http://egfbank.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>HengFEng</t>
+  </si>
+  <si>
+    <t>social.p</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[1]/li[4]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[1]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/div[1]/p[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[4]/text()</t>
+  </si>
+  <si>
+    <t>^.zpdetail</t>
+  </si>
+  <si>
+    <t>notice.info.</t>
+  </si>
+  <si>
+    <t>http://egfbank.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>campus.p</t>
+  </si>
+  <si>
+    <t>http://job.efunds.com.cn/portal/careerrecruitment/list/social.view</t>
+  </si>
+  <si>
+    <t>YFD</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/h2/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[2]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[4]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[8]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>http://job.efunds.com.cn/portal/careerrecruitment/list/campus.view</t>
+  </si>
+  <si>
+    <t>^.theme1.career</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +215,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,9 +255,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,82 +610,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>company</t>
   </si>
@@ -114,30 +114,6 @@
     <t>branch_notice_list2</t>
   </si>
   <si>
-    <t>abchina</t>
-  </si>
-  <si>
-    <t>jobDetails</t>
-  </si>
-  <si>
-    <t>http://job.abchina.com/rio/index.do?action=openHome&amp;toId=2</t>
-  </si>
-  <si>
-    <t>jobPublish</t>
-  </si>
-  <si>
-    <t>//*[@id="frmPutQuestion"]/table[3]/tr[2]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="frmPutQuestion"]/table[3]/tr[6]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="frmPutQuestion"]/table[3]/tbody/tr[3]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="frmPutQuestion"]/table[3]/tr[5]/td[2]/text()</t>
-  </si>
-  <si>
     <t>http://egfbank.zhiye.com/Social</t>
   </si>
   <si>
@@ -193,6 +169,75 @@
   </si>
   <si>
     <t>^.theme1.career</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>//*[@id="Nav2"]/div[6]/div[1]/div[2]/text()</t>
+  </si>
+  <si>
+    <t>HuaTai</t>
+  </si>
+  <si>
+    <t>http://job.htsc.com.cn/recruitment/index/h/2/jt/3</t>
+  </si>
+  <si>
+    <t>http://job.htsc.com.cn/recruitment/index/h/3/jt/4</t>
+  </si>
+  <si>
+    <t>//*[@id="Nav2"]/div[6]/div[1]/table/tbody/tr[2]/td[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="Nav2"]/div[6]/div[1]/table/tbody/tr[3]/td[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="Nav3"]/div[6]/div[1]/div[2]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="Nav3"]/div[6]/div[1]/table/tbody/tr[2]/td[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="Nav3"]/div[6]/div[1]/table/tbody/tr[3]/td[1]/text()</t>
+  </si>
+  <si>
+    <t>http://guosen.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>GUOSEN</t>
+  </si>
+  <si>
+    <t>http://guosen.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>huatai:likely to be blocked</t>
+  </si>
+  <si>
+    <t>TianHong</t>
+  </si>
+  <si>
+    <t>http://thfund.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>http://thfund.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>social.r</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[1]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[3]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[2]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>campus.r</t>
   </si>
 </sst>
 </file>
@@ -222,7 +267,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,12 +278,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
   </fills>
@@ -255,16 +294,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,15 +646,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -650,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -679,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -708,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -731,158 +767,283 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="J8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="P11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="R11" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="S11" t="s">
+      <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="T11" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
         <v>37</v>
       </c>
-      <c r="W11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
-        <v>31</v>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -890,8 +1051,10 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A5" r:id="rId2"/>
     <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A11" r:id="rId4"/>
+    <hyperlink ref="A14" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22830" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,289 +770,289 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
         <v>37</v>
       </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>65</v>
+      <c r="A13" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>66</v>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
         <v>37</v>
-      </c>
-      <c r="O14" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A11" r:id="rId4"/>
-    <hyperlink ref="A14" r:id="rId5"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A14" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17610"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22830" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,11 +22,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+  <si>
+    <t>link</t>
+  </si>
   <si>
     <t>company</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -48,54 +54,48 @@
     <t>finallinkregex</t>
   </si>
   <si>
+    <t>http://career.cmbchina.com/Campus/Campus.aspx</t>
+  </si>
+  <si>
+    <t>cmbchina</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div/div[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div/div[2]/p[3]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div/div[2]/p[5]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div/div[2]/p[6]/text()</t>
+  </si>
+  <si>
     <t>branch=</t>
   </si>
   <si>
     <t>Position.aspx.id</t>
   </si>
   <si>
-    <t>http://career.cmbchina.com/Campus/Campus.aspx</t>
-  </si>
-  <si>
-    <t>cmbchina</t>
-  </si>
-  <si>
-    <t>//*[@id="rightdiv"]/div/div[1]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="rightdiv"]/div/div[2]/p[6]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="rightdiv"]/div/div[2]/p[5]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="rightdiv"]/div/div[2]/p[3]/text()</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>http://career.cmbchina.com/Social/Default.aspx</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>http://career.cmbchina.com/Social/Default.aspx</t>
-  </si>
-  <si>
-    <t>link</t>
+    <t>//*[@id="rightdiv"]/div[1]/div[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[3]/text()</t>
   </si>
   <si>
     <t>//*[@id="rightdiv"]/div[1]/div[2]/p[5]/text()</t>
   </si>
   <si>
-    <t>//*[@id="rightdiv"]/div[1]/div[1]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[3]/text()</t>
-  </si>
-  <si>
     <t>//*[@id="rightdiv"]/div[1]/div[2]/p[6]/text()</t>
   </si>
   <si>
@@ -114,137 +114,134 @@
     <t>branch_notice_list2</t>
   </si>
   <si>
+    <t>notice.info.</t>
+  </si>
+  <si>
     <t>http://egfbank.zhiye.com/Social</t>
   </si>
   <si>
     <t>HengFEng</t>
   </si>
   <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[1]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[1]/li[4]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/div[1]/p[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[4]/text()</t>
+  </si>
+  <si>
     <t>social.p</t>
   </si>
   <si>
-    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[1]/li[4]/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[5]/div[2]/div/div/div[1]/span/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/div[1]/p[2]/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[4]/text()</t>
-  </si>
-  <si>
     <t>^.zpdetail</t>
   </si>
   <si>
-    <t>notice.info.</t>
-  </si>
-  <si>
     <t>http://egfbank.zhiye.com/Campus</t>
   </si>
   <si>
     <t>campus.p</t>
   </si>
   <si>
+    <t>http://job.efunds.com.cn/portal/careerrecruitment/list/campus.view</t>
+  </si>
+  <si>
+    <t>YFD</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/h2/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[2]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[4]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[8]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>^.theme1.career</t>
+  </si>
+  <si>
     <t>http://job.efunds.com.cn/portal/careerrecruitment/list/social.view</t>
   </si>
   <si>
-    <t>YFD</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/h2/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[2]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[4]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[8]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>http://job.efunds.com.cn/portal/careerrecruitment/list/campus.view</t>
-  </si>
-  <si>
-    <t>^.theme1.career</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>//*[@id="Nav2"]/div[6]/div[1]/div[2]/text()</t>
-  </si>
-  <si>
-    <t>HuaTai</t>
-  </si>
-  <si>
-    <t>http://job.htsc.com.cn/recruitment/index/h/2/jt/3</t>
-  </si>
-  <si>
-    <t>http://job.htsc.com.cn/recruitment/index/h/3/jt/4</t>
-  </si>
-  <si>
-    <t>//*[@id="Nav2"]/div[6]/div[1]/table/tbody/tr[2]/td[1]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="Nav2"]/div[6]/div[1]/table/tbody/tr[3]/td[1]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="Nav3"]/div[6]/div[1]/div[2]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="Nav3"]/div[6]/div[1]/table/tbody/tr[2]/td[1]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="Nav3"]/div[6]/div[1]/table/tbody/tr[3]/td[1]/text()</t>
-  </si>
-  <si>
     <t>http://guosen.zhiye.com/Social</t>
   </si>
   <si>
     <t>GUOSEN</t>
   </si>
   <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[2]/text()</t>
+  </si>
+  <si>
     <t>http://guosen.zhiye.com/Campus</t>
   </si>
   <si>
-    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[2]/text()</t>
-  </si>
-  <si>
-    <t>huatai:likely to be blocked</t>
+    <t>http://thfund.zhiye.com/Social</t>
   </si>
   <si>
     <t>TianHong</t>
   </si>
   <si>
-    <t>http://thfund.zhiye.com/Social</t>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[1]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[3]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[2]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>social.r</t>
   </si>
   <si>
     <t>http://thfund.zhiye.com/Campus</t>
   </si>
   <si>
-    <t>social.r</t>
-  </si>
-  <si>
-    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[1]/span/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[3]/li[2]/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[2]/li[2]/text()</t>
-  </si>
-  <si>
     <t>campus.r</t>
+  </si>
+  <si>
+    <t>http://career.gjzq.com.cn/social?r=&amp;p=&amp;c=-1&amp;d=&amp;k=#jlt</t>
+  </si>
+  <si>
+    <t>Guojinzhengquan</t>
+  </si>
+  <si>
+    <t>http://career.gjzq.com.cn/Campus</t>
+  </si>
+  <si>
+    <t>http://bhzq.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>Bohai</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/h2/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[2]/td[8]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[1]/td[6]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[2]/td[4]/span/text()</t>
+  </si>
+  <si>
+    <t>http://bhzq.zhiye.com/Campus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,7 +330,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -645,48 +642,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -694,28 +691,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
       <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -723,28 +720,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -752,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -767,294 +764,353 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="60">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
         <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="60">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="60">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
-    <hyperlink ref="A14" r:id="rId3"/>
-    <hyperlink ref="A9" r:id="rId4"/>
-    <hyperlink ref="A12" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" location="jlt" xr:uid="{DB5C6949-8994-411E-B6ED-8E34AC6FF3CA}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{ECC755B4-E748-4594-A295-8EC249C03103}"/>
+    <hyperlink ref="A15" r:id="rId8" xr:uid="{12AA9532-9DBC-44AC-9010-58E0B46CBAE1}"/>
+    <hyperlink ref="A16" r:id="rId9" xr:uid="{8329E363-0A71-4098-AE48-033E4E27038E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17610"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,11 +22,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+  <si>
+    <t>link</t>
+  </si>
   <si>
     <t>company</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -48,54 +54,48 @@
     <t>finallinkregex</t>
   </si>
   <si>
+    <t>http://career.cmbchina.com/Campus/Campus.aspx</t>
+  </si>
+  <si>
+    <t>cmbchina</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div/div[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div/div[2]/p[3]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div/div[2]/p[5]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div/div[2]/p[6]/text()</t>
+  </si>
+  <si>
     <t>branch=</t>
   </si>
   <si>
     <t>Position.aspx.id</t>
   </si>
   <si>
-    <t>http://career.cmbchina.com/Campus/Campus.aspx</t>
-  </si>
-  <si>
-    <t>cmbchina</t>
-  </si>
-  <si>
-    <t>//*[@id="rightdiv"]/div/div[1]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="rightdiv"]/div/div[2]/p[6]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="rightdiv"]/div/div[2]/p[5]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="rightdiv"]/div/div[2]/p[3]/text()</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>http://career.cmbchina.com/Social/Default.aspx</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>http://career.cmbchina.com/Social/Default.aspx</t>
-  </si>
-  <si>
-    <t>link</t>
+    <t>//*[@id="rightdiv"]/div[1]/div[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[3]/text()</t>
   </si>
   <si>
     <t>//*[@id="rightdiv"]/div[1]/div[2]/p[5]/text()</t>
   </si>
   <si>
-    <t>//*[@id="rightdiv"]/div[1]/div[1]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[3]/text()</t>
-  </si>
-  <si>
     <t>//*[@id="rightdiv"]/div[1]/div[2]/p[6]/text()</t>
   </si>
   <si>
@@ -114,28 +114,7 @@
     <t>branch_notice_list2</t>
   </si>
   <si>
-    <t>abchina</t>
-  </si>
-  <si>
-    <t>jobDetails</t>
-  </si>
-  <si>
-    <t>http://job.abchina.com/rio/index.do?action=openHome&amp;toId=2</t>
-  </si>
-  <si>
-    <t>jobPublish</t>
-  </si>
-  <si>
-    <t>//*[@id="frmPutQuestion"]/table[3]/tr[2]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="frmPutQuestion"]/table[3]/tr[6]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="frmPutQuestion"]/table[3]/tbody/tr[3]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>//*[@id="frmPutQuestion"]/table[3]/tr[5]/td[2]/text()</t>
+    <t>notice.info.</t>
   </si>
   <si>
     <t>http://egfbank.zhiye.com/Social</t>
@@ -144,62 +123,125 @@
     <t>HengFEng</t>
   </si>
   <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[1]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[1]/li[4]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/div[1]/p[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[4]/text()</t>
+  </si>
+  <si>
     <t>social.p</t>
   </si>
   <si>
-    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[1]/li[4]/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[5]/div[2]/div/div/div[1]/span/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/div[1]/p[2]/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[4]/text()</t>
-  </si>
-  <si>
     <t>^.zpdetail</t>
   </si>
   <si>
-    <t>notice.info.</t>
-  </si>
-  <si>
     <t>http://egfbank.zhiye.com/Campus</t>
   </si>
   <si>
     <t>campus.p</t>
   </si>
   <si>
+    <t>http://job.efunds.com.cn/portal/careerrecruitment/list/campus.view</t>
+  </si>
+  <si>
+    <t>YFD</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/h2/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[2]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[4]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[8]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>^.theme1.career</t>
+  </si>
+  <si>
     <t>http://job.efunds.com.cn/portal/careerrecruitment/list/social.view</t>
   </si>
   <si>
-    <t>YFD</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/h2/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[2]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[4]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[8]/td[2]/text()</t>
-  </si>
-  <si>
-    <t>http://job.efunds.com.cn/portal/careerrecruitment/list/campus.view</t>
-  </si>
-  <si>
-    <t>^.theme1.career</t>
+    <t>http://guosen.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>GUOSEN</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>http://guosen.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>http://thfund.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>TianHong</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[1]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[3]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[2]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>social.r</t>
+  </si>
+  <si>
+    <t>http://thfund.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>campus.r</t>
+  </si>
+  <si>
+    <t>http://career.gjzq.com.cn/social?r=&amp;p=&amp;c=-1&amp;d=&amp;k=#jlt</t>
+  </si>
+  <si>
+    <t>Guojinzhengquan</t>
+  </si>
+  <si>
+    <t>http://career.gjzq.com.cn/Campus</t>
+  </si>
+  <si>
+    <t>http://bhzq.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>Bohai</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/h2/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[2]/td[8]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[1]/td[6]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[2]/td[4]/span/text()</t>
+  </si>
+  <si>
+    <t>http://bhzq.zhiye.com/Campus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,7 +264,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,12 +275,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
   </fills>
@@ -255,16 +291,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -297,7 +330,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -609,48 +642,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -658,28 +691,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
       <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -687,28 +720,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -716,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -731,167 +764,353 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="60">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="60">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="60">
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" t="s">
-        <v>37</v>
-      </c>
-      <c r="W11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
-        <v>31</v>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" location="jlt" xr:uid="{DB5C6949-8994-411E-B6ED-8E34AC6FF3CA}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{ECC755B4-E748-4594-A295-8EC249C03103}"/>
+    <hyperlink ref="A15" r:id="rId8" xr:uid="{12AA9532-9DBC-44AC-9010-58E0B46CBAE1}"/>
+    <hyperlink ref="A16" r:id="rId9" xr:uid="{8329E363-0A71-4098-AE48-033E4E27038E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22830" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>link</t>
   </si>
@@ -57,9 +57,6 @@
     <t>http://career.cmbchina.com/Campus/Campus.aspx</t>
   </si>
   <si>
-    <t>cmbchina</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -79,6 +76,165 @@
   </si>
   <si>
     <t>Position.aspx.id</t>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Social/Default.aspx</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[3]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[5]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[6]/text()</t>
+  </si>
+  <si>
+    <t>http://job.ccb.com/ccbjob/cn/job/index.jsp</t>
+  </si>
+  <si>
+    <t>//*[@id="title"]/strong/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="data"]/table/tbody/tr[2]/td/p[5]/font/text()</t>
+  </si>
+  <si>
+    <t>branch_notice_list2</t>
+  </si>
+  <si>
+    <t>notice.info.</t>
+  </si>
+  <si>
+    <t>http://egfbank.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[1]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[1]/li[4]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/div[1]/p[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[4]/text()</t>
+  </si>
+  <si>
+    <t>social.p</t>
+  </si>
+  <si>
+    <t>^.zpdetail</t>
+  </si>
+  <si>
+    <t>http://egfbank.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>campus.p</t>
+  </si>
+  <si>
+    <t>http://job.efunds.com.cn/portal/careerrecruitment/list/campus.view</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/h2/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[2]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[4]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[8]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>^.theme1.career</t>
+  </si>
+  <si>
+    <t>http://job.efunds.com.cn/portal/careerrecruitment/list/social.view</t>
+  </si>
+  <si>
+    <t>http://guosen.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>http://guosen.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>http://thfund.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[1]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[3]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[2]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>social.r</t>
+  </si>
+  <si>
+    <t>http://thfund.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>campus.r</t>
+  </si>
+  <si>
+    <t>http://career.gjzq.com.cn/social?r=&amp;p=&amp;c=-1&amp;d=&amp;k=#jlt</t>
+  </si>
+  <si>
+    <t>http://career.gjzq.com.cn/Campus</t>
+  </si>
+  <si>
+    <t>http://bhzq.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/h2/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[2]/td[8]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[1]/td[6]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[2]/td[4]/span/text()</t>
+  </si>
+  <si>
+    <t>http://bhzq.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>中国招商银行</t>
+  </si>
+  <si>
+    <t>中国建设银行</t>
+  </si>
+  <si>
+    <t>恒丰银行</t>
+  </si>
+  <si>
+    <t>易方达基金管理有限公司</t>
+  </si>
+  <si>
+    <t>国信证券</t>
+  </si>
+  <si>
+    <t>天弘基金</t>
+  </si>
+  <si>
+    <t>国金证券</t>
+  </si>
+  <si>
+    <t>渤海证券</t>
   </si>
 </sst>
 </file>
@@ -490,7 +646,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,72 +688,429 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="135.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId5"/>
+    <hyperlink ref="A13" r:id="rId6" location="jlt"/>
+    <hyperlink ref="A14" r:id="rId7"/>
+    <hyperlink ref="A15" r:id="rId8"/>
+    <hyperlink ref="A16" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>